--- a/CRUDCreateCode/data/input/settings/settings.xlsx
+++ b/CRUDCreateCode/data/input/settings/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkax/dev/aimonetize/Backend/DjangoBasic/CRUDCreateCode/data/input/settings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7F8FD2E-6A1B-5842-A424-255A48348A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01728838-6D79-5843-8E60-825D965E7E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17900" yWindow="500" windowWidth="20500" windowHeight="16940" xr2:uid="{322CA9BF-5D62-1A4B-B560-CA111D61AAA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>BASE_DIR</t>
   </si>
@@ -93,13 +93,164 @@
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>'django-insecure-bm)sn&amp;2^=4%(5b22s$w_fxcz$+t_50r3_-!2&amp;(_l9p&amp;rsdvk-a'</t>
+  </si>
+  <si>
+    <t>[
+    #'Customer',
+    'django.contrib.admin',
+    'django.contrib.auth',
+    'django.contrib.contenttypes',
+    'django.contrib.sessions',
+    'django.contrib.messages',
+    'django.contrib.staticfiles',
+    'rest_framework',
+    'crispy_forms',
+    'corsheaders',
+    'debug_toolbar',
+    'allauth',
+    'allauth.account',
+    'allauth.socialaccount',
+    'allauth.account.auth_backends.AuthenticationBackend',
+    'index.apps.IndexConfig',
+    'account.apps.AccountConfig',
+    'community.apps.CommunityConfig',
+    'django_filters',
+]</t>
+  </si>
+  <si>
+    <t>[
+    'django.middleware.security.SecurityMiddleware',
+    'django.contrib.sessions.middleware.SessionMiddleware',
+    'django.middleware.common.CommonMiddleware',
+    'django.middleware.csrf.CsrfViewMiddleware',
+    'django.contrib.auth.middleware.AuthenticationMiddleware',
+    'django.contrib.messages.middleware.MessageMiddleware',
+    'django.middleware.clickjacking.XFrameOptionsMiddleware',
+]</t>
+  </si>
+  <si>
+    <t>backend.urls'</t>
+  </si>
+  <si>
+    <t>[
+    {
+        'BACKEND': 'django.template.backends.django.DjangoTemplates',
+        'DIRS': [BASE_DIR / 'templates'],
+        'APP_DIRS': True,
+        'OPTIONS': {
+            'context_processors': [
+                'django.template.context_processors.debug',
+                'django.template.context_processors.request',
+                'django.contrib.auth.context_processors.auth',
+                'django.contrib.messages.context_processors.messages',
+            ],
+        },
+    },
+]</t>
+  </si>
+  <si>
+    <t>backend.wsgi.application'</t>
+  </si>
+  <si>
+    <t>{
+    'default': {
+        'ENGINE': 'django.db.backends.sqlite3',
+        'NAME': BASE_DIR / 'db.sqlite3',
+    }
+}</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Simple_settings</t>
+  </si>
+  <si>
+    <t>[
+    {
+        'NAME': 'django.contrib.auth.password_validation.UserAttributeSimilarityValidator',
+    },
+    {
+        'NAME': 'django.contrib.auth.password_validation.MinimumLengthValidator',
+    },
+    {
+        'NAME': 'django.contrib.auth.password_validation.CommonPasswordValidator',
+    },
+    {
+        'NAME': 'django.contrib.auth.password_validation.NumericPasswordValidator',
+    },
+]</t>
+  </si>
+  <si>
+    <t>'en-us'</t>
+  </si>
+  <si>
+    <t>'UTC'</t>
+  </si>
+  <si>
+    <t>'static/'</t>
+  </si>
+  <si>
+    <t>[
+    BASE_DIR / 'mystaticfiles',  # Adjust the path to match your structure
+]</t>
+  </si>
+  <si>
+    <t>STATICFILES_DIRS</t>
+  </si>
+  <si>
+    <t>MEDIA_URL</t>
+  </si>
+  <si>
+    <t>MEDIA_ROOT</t>
+  </si>
+  <si>
+    <t>'django.db.models.BigAutoField'</t>
+  </si>
+  <si>
+    <t>'/media/'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">os.path.join(BASE_DIR, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'media'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>libraries</t>
+  </si>
+  <si>
+    <t>from pathlib import Path
+import os
+import django
+django.setup()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,6 +261,24 @@
     <font>
       <sz val="12"/>
       <color rgb="FFD4D4D4"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4F833A"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF5499D2"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -134,9 +303,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,111 +635,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EF8DB5-EEF7-614F-8425-BE906C32007B}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="404" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="388" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CRUDCreateCode/data/input/settings/settings.xlsx
+++ b/CRUDCreateCode/data/input/settings/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkax/dev/aimonetize/Backend/DjangoBasic/CRUDCreateCode/data/input/settings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01728838-6D79-5843-8E60-825D965E7E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1974CF5B-002B-7A4C-9855-7BC6882E4B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17900" yWindow="500" windowWidth="20500" windowHeight="16940" xr2:uid="{322CA9BF-5D62-1A4B-B560-CA111D61AAA5}"/>
+    <workbookView xWindow="4100" yWindow="860" windowWidth="20500" windowHeight="16940" xr2:uid="{322CA9BF-5D62-1A4B-B560-CA111D61AAA5}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -99,29 +99,6 @@
   </si>
   <si>
     <t>[
-    #'Customer',
-    'django.contrib.admin',
-    'django.contrib.auth',
-    'django.contrib.contenttypes',
-    'django.contrib.sessions',
-    'django.contrib.messages',
-    'django.contrib.staticfiles',
-    'rest_framework',
-    'crispy_forms',
-    'corsheaders',
-    'debug_toolbar',
-    'allauth',
-    'allauth.account',
-    'allauth.socialaccount',
-    'allauth.account.auth_backends.AuthenticationBackend',
-    'index.apps.IndexConfig',
-    'account.apps.AccountConfig',
-    'community.apps.CommunityConfig',
-    'django_filters',
-]</t>
-  </si>
-  <si>
-    <t>[
     'django.middleware.security.SecurityMiddleware',
     'django.contrib.sessions.middleware.SessionMiddleware',
     'django.middleware.common.CommonMiddleware',
@@ -164,9 +141,6 @@
   </si>
   <si>
     <t>Variable</t>
-  </si>
-  <si>
-    <t>Simple_settings</t>
   </si>
   <si>
     <t>[
@@ -245,12 +219,30 @@
 import django
 django.setup()</t>
   </si>
+  <si>
+    <t>settings_content</t>
+  </si>
+  <si>
+    <t>[  'rest_framework',
+    'simple_history',
+    'django.contrib.admin',
+    'django.contrib.auth',
+    'django.contrib.contenttypes',
+    'django.contrib.sessions',
+    'django.contrib.messages',
+    'django.contrib.staticfiles',
+    'crispy_forms',
+    'corsheaders',
+    'debug_toolbar',
+    'django_filters',
+]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -267,18 +259,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFCE9178"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF4F833A"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF5499D2"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -303,21 +283,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -339,9 +308,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -379,7 +348,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -485,7 +454,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -627,7 +596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,7 +607,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,178 +618,178 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="255" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="b">
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="404" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="388" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="136" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="306" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">

--- a/CRUDCreateCode/data/input/settings/settings.xlsx
+++ b/CRUDCreateCode/data/input/settings/settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkax/dev/aimonetize/Backend/DjangoBasic/CRUDCreateCode/data/input/settings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1974CF5B-002B-7A4C-9855-7BC6882E4B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD5AAE9-AF77-AC44-BFE1-3A15A4534203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4100" yWindow="860" windowWidth="20500" windowHeight="16940" xr2:uid="{322CA9BF-5D62-1A4B-B560-CA111D61AAA5}"/>
   </bookViews>
@@ -98,17 +98,6 @@
     <t>'django-insecure-bm)sn&amp;2^=4%(5b22s$w_fxcz$+t_50r3_-!2&amp;(_l9p&amp;rsdvk-a'</t>
   </si>
   <si>
-    <t>[
-    'django.middleware.security.SecurityMiddleware',
-    'django.contrib.sessions.middleware.SessionMiddleware',
-    'django.middleware.common.CommonMiddleware',
-    'django.middleware.csrf.CsrfViewMiddleware',
-    'django.contrib.auth.middleware.AuthenticationMiddleware',
-    'django.contrib.messages.middleware.MessageMiddleware',
-    'django.middleware.clickjacking.XFrameOptionsMiddleware',
-]</t>
-  </si>
-  <si>
     <t>backend.urls'</t>
   </si>
   <si>
@@ -235,7 +224,19 @@
     'corsheaders',
     'debug_toolbar',
     'django_filters',
+    'simple_history',
 ]</t>
+  </si>
+  <si>
+    <t>[
+    'django.middleware.security.SecurityMiddleware',
+    'django.contrib.sessions.middleware.SessionMiddleware',
+    'django.middleware.common.CommonMiddleware',
+    'django.middleware.csrf.CsrfViewMiddleware',
+    'django.contrib.auth.middleware.AuthenticationMiddleware',
+    'django.contrib.messages.middleware.MessageMiddleware',
+    'django.middleware.clickjacking.XFrameOptionsMiddleware',
+    'simple_history.middleware.HistoryRequestMiddleware',]</t>
   </si>
 </sst>
 </file>
@@ -607,7 +608,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -618,18 +619,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -669,7 +670,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="153" x14ac:dyDescent="0.2">
@@ -677,7 +678,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -685,7 +686,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="255" x14ac:dyDescent="0.2">
@@ -693,7 +694,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -701,7 +702,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="102" x14ac:dyDescent="0.2">
@@ -709,7 +710,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="238" x14ac:dyDescent="0.2">
@@ -717,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -725,7 +726,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -733,7 +734,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -757,7 +758,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -765,31 +766,31 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
